--- a/medicine/Sexualité et sexologie/Cinquante_Nuances_plus_sombres/Cinquante_Nuances_plus_sombres.xlsx
+++ b/medicine/Sexualité et sexologie/Cinquante_Nuances_plus_sombres/Cinquante_Nuances_plus_sombres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cinquante Nuances plus sombres (titre original : Fifty Shades Darker) est une romance érotique écrite par la Britannique E. L. James, connue d'abord par auto-publication sur le site Internet de l'auteur puis sur le site internet The Writers' Coffee Shop, qui le propose à l'impression à la demande en septembre 2011. L'éditeur Vintage Books le publie en édition papier dans une version révisée en avril 2012.
@@ -513,9 +525,11 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ana est convaincue que Christian et elle ne sont pas compatibles. Après leur rupture, Anastasia commence à travailler pour une maison d'édition. Mais Christian réapparaît vite dans sa vie. Il l'invite à une soirée. Leur relation passionnée recommence. Cependant, cette fois-ci, tout sera différent : Christian accepte[1] d'essayer d'avoir pour la première fois de sa vie une relation amoureuse. Néanmoins, leur courte séparation a causé chez le jeune homme des problèmes de confiance[1] et une angoisse[1] permanente. Il lui fait une proposition qu'elle ne peut pas refuser. Christian se dévoile et Ana fait face à des personnes ayant marqué le passé de ce dernier.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ana est convaincue que Christian et elle ne sont pas compatibles. Après leur rupture, Anastasia commence à travailler pour une maison d'édition. Mais Christian réapparaît vite dans sa vie. Il l'invite à une soirée. Leur relation passionnée recommence. Cependant, cette fois-ci, tout sera différent : Christian accepte d'essayer d'avoir pour la première fois de sa vie une relation amoureuse. Néanmoins, leur courte séparation a causé chez le jeune homme des problèmes de confiance et une angoisse permanente. Il lui fait une proposition qu'elle ne peut pas refuser. Christian se dévoile et Ana fait face à des personnes ayant marqué le passé de ce dernier.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Série Cinquante Nuances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cinquante Nuances de Grey, Jean-Claude Lattès, 2012 ((en) Fifty Shades of Grey, Vintage Books, 2012), trad. Denyse Beaulieu  (ISBN 978-2-7096-4252-1)
 Cinquante Nuances plus sombres, Jean-Claude Lattès, 2013 ((en) Fifty Shades Darker, Vintage Books, 2012), trad. Aurélie Tronchet  (ISBN 978-2-7096-4253-8)
@@ -580,6 +596,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -605,7 +623,9 @@
           <t>Éditions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>E. L. James, Fifty Shades Darker, Vintage Books, 17 avril 2012, 544 p.  (ISBN 978-0345803498)
 E. L. James, Cinquante Nuances plus sombres, Jean-Claude Lattès, 3 janvier 2013, trad. Aurélie Tronchet, 560 p.  (ISBN 978-2-7096-4253-8)
